--- a/Parcial 1/Ejercicios/03 ejercicio caracteres soluciones.xlsx
+++ b/Parcial 1/Ejercicios/03 ejercicio caracteres soluciones.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hca\Desktop\hcp-repo\Parcial 1\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 1\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoy NO circula" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -182,12 +182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -196,6 +190,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,7 +231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -435,7 +441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2"/>
+        <xdr:cNvPr id="3" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -996,2761 +1008,2761 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="3" customWidth="1"/>
     <col min="7" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="10" width="2.28515625" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
-    <col min="13" max="14" width="2.28515625" customWidth="1"/>
+    <col min="9" max="10" width="2.265625" customWidth="1"/>
+    <col min="11" max="11" width="2.1328125" customWidth="1"/>
+    <col min="12" max="12" width="2.3984375" customWidth="1"/>
+    <col min="13" max="14" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="9"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f ca="1">CONCATENATE(I21,J21,K21,L21,M21,N21,)</f>
-        <v>109EQL</v>
+        <f t="shared" ref="B21:B52" ca="1" si="0">CONCATENATE(I21,J21,K21,L21,M21,N21,)</f>
+        <v>111RQR</v>
       </c>
       <c r="C21" s="3">
         <f ca="1">RANDBETWEEN(1992,2018)</f>
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="D21" s="3" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="E21" s="3">
         <f ca="1">IF(C21&gt;=2000,IF(D21="SI",0,1),1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <f ca="1">IF(E21=0,5,4)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <f ca="1">F21-1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <f ca="1">RANDBETWEEN(0,9)</f>
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:K36" ca="1" si="0">RANDBETWEEN(0,9)</f>
-        <v>0</v>
+        <f t="shared" ref="J21:K36" ca="1" si="1">RANDBETWEEN(0,9)</f>
+        <v>1</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
-        <v>E</v>
+        <v>R</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f t="shared" ref="M21:N36" ca="1" si="1">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
+        <f t="shared" ref="M21:N36" ca="1" si="2">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
         <v>Q</v>
       </c>
       <c r="N21" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>R</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f ca="1">CONCATENATE(I22,J22,K22,L22,M22,N22,)</f>
-        <v>450UJE</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>368OVC</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:C70" ca="1" si="2">RANDBETWEEN(1992,2018)</f>
-        <v>2010</v>
+        <f t="shared" ref="C22:C70" ca="1" si="3">RANDBETWEEN(1992,2018)</f>
+        <v>1992</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" ref="D22:D70" ca="1" si="3">CHOOSE(RANDBETWEEN(1,2),"SI","NO")</f>
+        <f t="shared" ref="D22:D70" ca="1" si="4">CHOOSE(RANDBETWEEN(1,2),"SI","NO")</f>
         <v>NO</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ref="E22:E70" ca="1" si="4">IF(C22&gt;=2000,IF(D22="SI",0,1),1)</f>
+        <f t="shared" ref="E22:E70" ca="1" si="5">IF(C22&gt;=2000,IF(D22="SI",0,1),1)</f>
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22:F70" ca="1" si="5">IF(E22=0,5,4)</f>
+        <f t="shared" ref="F22:F70" ca="1" si="6">IF(E22=0,5,4)</f>
         <v>4</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22:G70" ca="1" si="6">F22-1</f>
+        <f t="shared" ref="G22:G70" ca="1" si="7">F22-1</f>
         <v>3</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:K62" ca="1" si="7">RANDBETWEEN(0,9)</f>
-        <v>4</v>
+        <f t="shared" ref="I22:K62" ca="1" si="8">RANDBETWEEN(0,9)</f>
+        <v>3</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" ref="L22:N62" ca="1" si="8">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
-        <v>U</v>
+        <f t="shared" ref="L22:N62" ca="1" si="9">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
+        <v>O</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>V</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f ca="1">CONCATENATE(I23,J23,K23,L23,M23,N23,)</f>
-        <v>549ADB</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>709ACC</v>
       </c>
       <c r="C23" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="M23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1997</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="N23" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f ca="1">CONCATENATE(I24,J24,K24,L24,M24,N24,)</f>
-        <v>210XZZ</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>882RJS</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2001</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>R</v>
+      </c>
+      <c r="M24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Z</v>
+        <v>J</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>S</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>5</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f ca="1">CONCATENATE(I25,J25,K25,L25,M25,N25,)</f>
-        <v>492JIF</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>855HSJ</v>
       </c>
       <c r="C25" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2008</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>H</v>
+      </c>
+      <c r="M25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <v>S</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>J</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f ca="1">CONCATENATE(I26,J26,K26,L26,M26,N26,)</f>
-        <v>392PPL</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>996YDS</v>
       </c>
       <c r="C26" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2008</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="M26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2014</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>P</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>P</v>
+        <v>D</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>S</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>7</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f ca="1">CONCATENATE(I27,J27,K27,L27,M27,N27,)</f>
-        <v>138WFB</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>975TEY</v>
       </c>
       <c r="C27" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1993</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>T</v>
+      </c>
+      <c r="M27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1997</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L27" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>W</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="N27" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Y</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>8</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f ca="1">CONCATENATE(I28,J28,K28,L28,M28,N28,)</f>
-        <v>784QLJ</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>705XZT</v>
       </c>
       <c r="C28" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1999</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Q</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>L</v>
+        <v>Z</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>T</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>9</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f ca="1">CONCATENATE(I29,J29,K29,L29,M29,N29,)</f>
-        <v>757SSR</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>744SGE</v>
       </c>
       <c r="C29" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2006</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>S</v>
+      </c>
+      <c r="M29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="D29" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>S</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="N29" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>10</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f ca="1">CONCATENATE(I30,J30,K30,L30,M30,N30,)</f>
-        <v>181KEB</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>780CLQ</v>
       </c>
       <c r="C30" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1994</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="M30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1995</v>
-      </c>
-      <c r="D30" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>K</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>L</v>
       </c>
       <c r="N30" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Q</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>11</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f ca="1">CONCATENATE(I31,J31,K31,L31,M31,N31,)</f>
-        <v>368ZMA</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>162SFN</v>
       </c>
       <c r="C31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2008</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>S</v>
+      </c>
+      <c r="M31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2001</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Z</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="N31" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>N</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f ca="1">CONCATENATE(I32,J32,K32,L32,M32,N32,)</f>
-        <v>247TFH</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>474MVP</v>
       </c>
       <c r="C32" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>M</v>
+      </c>
+      <c r="M32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2011</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>T</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>V</v>
       </c>
       <c r="N32" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>13</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f ca="1">CONCATENATE(I33,J33,K33,L33,M33,N33,)</f>
-        <v>940QGO</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>768EXW</v>
       </c>
       <c r="C33" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1992</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="M33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2011</v>
-      </c>
-      <c r="D33" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Q</v>
-      </c>
-      <c r="M33" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>G</v>
+        <v>X</v>
       </c>
       <c r="N33" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>O</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>14</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f ca="1">CONCATENATE(I34,J34,K34,L34,M34,N34,)</f>
-        <v>073AYD</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>976TDP</v>
       </c>
       <c r="C34" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1998</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>T</v>
+      </c>
+      <c r="M34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2015</v>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="M34" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Y</v>
+        <v>D</v>
       </c>
       <c r="N34" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>15</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f ca="1">CONCATENATE(I35,J35,K35,L35,M35,N35,)</f>
-        <v>751LTD</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>771AFG</v>
       </c>
       <c r="C35" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="M35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1996</v>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>L</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N35" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>16</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f ca="1">CONCATENATE(I36,J36,K36,L36,M36,N36,)</f>
-        <v>353TRY</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>679KIR</v>
       </c>
       <c r="C36" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1996</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>K</v>
+      </c>
+      <c r="M36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2007</v>
-      </c>
-      <c r="D36" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L36" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>T</v>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>I</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>R</v>
       </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f ca="1">CONCATENATE(I37,J37,K37,L37,M37,N37,)</f>
-        <v>185HFB</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>682KHW</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2004</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
       <c r="K37">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="L37" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>K</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>H</v>
       </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>F</v>
-      </c>
       <c r="N37" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>18</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f ca="1">CONCATENATE(I38,J38,K38,L38,M38,N38,)</f>
-        <v>071WQY</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>122FIJ</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2014</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1996</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="I38">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="K38">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="L38" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>I</v>
       </c>
       <c r="N38" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>19</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f ca="1">CONCATENATE(I39,J39,K39,L39,M39,N39,)</f>
-        <v>276MWD</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>032WYI</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2005</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="I39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="J39">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
       <c r="L39" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Y</v>
       </c>
       <c r="N39" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>20</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f ca="1">CONCATENATE(I40,J40,K40,L40,M40,N40,)</f>
-        <v>974GNZ</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>240PFO</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2018</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2017</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="I40">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="L40" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
       </c>
       <c r="N40" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>21</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f ca="1">CONCATENATE(I41,J41,K41,L41,M41,N41,)</f>
-        <v>646JAK</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>697ZIP</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1992</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2018</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I41">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>6</v>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
       <c r="K41">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="L41" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>I</v>
       </c>
       <c r="N41" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>K</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>22</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f ca="1">CONCATENATE(I42,J42,K42,L42,M42,N42,)</f>
-        <v>485MRE</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>043ZWK</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2005</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>NO</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="L42" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
       </c>
       <c r="N42" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>K</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>23</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f ca="1">CONCATENATE(I43,J43,K43,L43,M43,N43,)</f>
-        <v>630DKU</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>264JLY</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2011</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I43">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="8"/>
         <v>6</v>
       </c>
-      <c r="J43">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
       <c r="K43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="L43" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>J</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>L</v>
       </c>
       <c r="N43" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>U</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>24</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f ca="1">CONCATENATE(I44,J44,K44,L44,M44,N44,)</f>
-        <v>342KZW</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>300ZTP</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1995</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>T</v>
       </c>
       <c r="N44" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>W</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>25</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f ca="1">CONCATENATE(I45,J45,K45,L45,M45,N45,)</f>
-        <v>799CMR</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>511DPN</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1993</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1998</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I45">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="K45">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="L45" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>D</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
       </c>
       <c r="N45" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>R</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>26</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f ca="1">CONCATENATE(I46,J46,K46,L46,M46,N46,)</f>
-        <v>629RUL</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>013RAA</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1996</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I46">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
       <c r="J46">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="K46">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="L46" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>R</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>A</v>
       </c>
       <c r="N46" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>27</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f ca="1">CONCATENATE(I47,J47,K47,L47,M47,N47,)</f>
-        <v>198YYX</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>575AHS</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1995</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1997</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I47">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="K47">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="L47" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>A</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>H</v>
       </c>
       <c r="N47" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>28</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f ca="1">CONCATENATE(I48,J48,K48,L48,M48,N48,)</f>
-        <v>112LZT</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>960TWW</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1995</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I48">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="L48" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>T</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
       </c>
       <c r="N48" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>29</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f ca="1">CONCATENATE(I49,J49,K49,L49,M49,N49,)</f>
-        <v>028CCF</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>978OZE</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2016</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2015</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
       <c r="L49" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>O</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
       </c>
       <c r="N49" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>30</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f ca="1">CONCATENATE(I50,J50,K50,L50,M50,N50,)</f>
-        <v>953IRV</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>625UUZ</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2015</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="8"/>
         <v>5</v>
       </c>
-      <c r="K50">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
       <c r="L50" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>I</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>U</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>U</v>
       </c>
       <c r="N50" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>V</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>31</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f ca="1">CONCATENATE(I51,J51,K51,L51,M51,N51,)</f>
-        <v>241VJV</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>109RPX</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1999</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
       <c r="L51" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>R</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
       </c>
       <c r="N51" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>V</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>32</v>
       </c>
       <c r="B52" s="3" t="str">
-        <f ca="1">CONCATENATE(I52,J52,K52,L52,M52,N52,)</f>
-        <v>351GTI</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>774BFC</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2016</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="L52" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>B</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
       </c>
       <c r="N52" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>33</v>
       </c>
       <c r="B53" s="3" t="str">
-        <f ca="1">CONCATENATE(I53,J53,K53,L53,M53,N53,)</f>
-        <v>582AVY</v>
+        <f t="shared" ref="B53:B70" ca="1" si="10">CONCATENATE(I53,J53,K53,L53,M53,N53,)</f>
+        <v>193HYZ</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2011</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1998</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="L53" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>H</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Y</v>
       </c>
       <c r="N53" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>34</v>
       </c>
       <c r="B54" s="3" t="str">
-        <f ca="1">CONCATENATE(I54,J54,K54,L54,M54,N54,)</f>
-        <v>319IBQ</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>484DYZ</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2006</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="L54" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>I</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>D</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Y</v>
       </c>
       <c r="N54" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Q</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>35</v>
       </c>
       <c r="B55" s="3" t="str">
-        <f ca="1">CONCATENATE(I55,J55,K55,L55,M55,N55,)</f>
-        <v>382UKA</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>411ZPP</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2016</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="L55" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Z</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
       </c>
       <c r="N55" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>36</v>
       </c>
       <c r="B56" s="3" t="str">
-        <f ca="1">CONCATENATE(I56,J56,K56,L56,M56,N56,)</f>
-        <v>836DFH</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>615TWR</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1993</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I56">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="L56" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>T</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
       </c>
       <c r="N56" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>37</v>
       </c>
       <c r="B57" s="3" t="str">
-        <f ca="1">CONCATENATE(I57,J57,K57,L57,M57,N57,)</f>
-        <v>076AGC</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>004FFJ</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2018</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2016</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ca="1" si="7"/>
+      <c r="J57">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="J57">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
       <c r="K57">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
       </c>
       <c r="N57" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>38</v>
       </c>
       <c r="B58" s="3" t="str">
-        <f ca="1">CONCATENATE(I58,J58,K58,L58,M58,N58,)</f>
-        <v>561ROV</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>287FYA</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1992</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1993</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>NO</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I58">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
       </c>
       <c r="K58">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="L58" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>O</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Y</v>
       </c>
       <c r="N58" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>V</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>39</v>
       </c>
       <c r="B59" s="3" t="str">
-        <f ca="1">CONCATENATE(I59,J59,K59,L59,M59,N59,)</f>
-        <v>113XMB</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>324CTX</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1999</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>NO</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I59">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="K59">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>T</v>
+      </c>
+      <c r="N59" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
-      <c r="M59" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>M</v>
-      </c>
-      <c r="N59" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>40</v>
       </c>
       <c r="B60" s="3" t="str">
-        <f ca="1">CONCATENATE(I60,J60,K60,L60,M60,N60,)</f>
-        <v>201OXD</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>114OMF</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2014</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2013</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="I60">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="K60">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="L60" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>O</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>M</v>
       </c>
       <c r="N60" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41</v>
       </c>
       <c r="B61" s="3" t="str">
-        <f ca="1">CONCATENATE(I61,J61,K61,L61,M61,N61,)</f>
-        <v>124LBF</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>562HRJ</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2011</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2013</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="I61">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="J61">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="K61">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
       <c r="L61" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>H</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>R</v>
       </c>
       <c r="N61" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>42</v>
       </c>
       <c r="B62" s="3" t="str">
-        <f ca="1">CONCATENATE(I62,J62,K62,L62,M62,N62,)</f>
-        <v>594QHV</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>701OWW</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2018</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2016</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="I62">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="J62">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="L62" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>O</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
       </c>
       <c r="N62" s="1" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>V</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="9"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>43</v>
       </c>
       <c r="B63" s="3" t="str">
-        <f ca="1">CONCATENATE(I63,J63,K63,L63,M63,N63,)</f>
-        <v>656MDA</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>412GGF</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1993</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>NO</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:K70" ca="1" si="9">RANDBETWEEN(0,9)</f>
-        <v>6</v>
+        <f t="shared" ref="I63:K70" ca="1" si="11">RANDBETWEEN(0,9)</f>
+        <v>4</v>
       </c>
       <c r="J63">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="K63">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="L63" s="1" t="str">
-        <f t="shared" ref="L63:N70" ca="1" si="10">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
-        <v>M</v>
+        <f t="shared" ref="L63:N70" ca="1" si="12">CHAR(RANDBETWEEN(CODE("A"),CODE("Z")))</f>
+        <v>G</v>
       </c>
       <c r="M63" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>G</v>
       </c>
       <c r="N63" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>44</v>
       </c>
       <c r="B64" s="3" t="str">
-        <f ca="1">CONCATENATE(I64,J64,K64,L64,M64,N64,)</f>
-        <v>508JOZ</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>392NIQ</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2018</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NO</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>SI</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="I64">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
       </c>
       <c r="J64">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
       </c>
       <c r="K64">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>N</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>O</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>I</v>
       </c>
       <c r="N64" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45</v>
       </c>
       <c r="B65" s="3" t="str">
-        <f ca="1">CONCATENATE(I65,J65,K65,L65,M65,N65,)</f>
-        <v>275IUM</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>310DGC</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1996</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2018</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>NO</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I65">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
       </c>
       <c r="J65">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="K65">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>I</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>D</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>G</v>
       </c>
       <c r="N65" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>M</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>46</v>
       </c>
       <c r="B66" s="3" t="str">
-        <f ca="1">CONCATENATE(I66,J66,K66,L66,M66,N66,)</f>
-        <v>106VFM</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>647ASE</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1995</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="I66">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
       </c>
       <c r="K66">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>A</v>
       </c>
       <c r="M66" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>S</v>
       </c>
       <c r="N66" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>M</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>47</v>
       </c>
       <c r="B67" s="3" t="str">
-        <f ca="1">CONCATENATE(I67,J67,K67,L67,M67,N67,)</f>
-        <v>259KFB</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>531FLR</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2003</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>NO</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="I67">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
       </c>
       <c r="J67">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
       </c>
       <c r="K67">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>F</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>L</v>
       </c>
       <c r="N67" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>48</v>
       </c>
       <c r="B68" s="3" t="str">
-        <f ca="1">CONCATENATE(I68,J68,K68,L68,M68,N68,)</f>
-        <v>996DYK</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>207PNN</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1996</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="F68" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
       <c r="K68">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>P</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>N</v>
       </c>
       <c r="N68" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>K</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>49</v>
       </c>
       <c r="B69" s="3" t="str">
-        <f ca="1">CONCATENATE(I69,J69,K69,L69,M69,N69,)</f>
-        <v>744RNL</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>267CTA</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2011</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2001</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SI</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>NO</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="I69">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="11"/>
         <v>7</v>
       </c>
-      <c r="J69">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="K69">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>C</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>T</v>
       </c>
       <c r="N69" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>50</v>
       </c>
       <c r="B70" s="3" t="str">
-        <f ca="1">CONCATENATE(I70,J70,K70,L70,M70,N70,)</f>
-        <v>679QCS</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>051FBH</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1997</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>SI</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="F70" s="3">
-        <f t="shared" ca="1" si="5"/>
+      <c r="J70">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="G70" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="J70">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
       <c r="K70">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>F</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>B</v>
       </c>
       <c r="N70" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="12"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -3776,6 +3788,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -3889,12 +3907,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D35DB2B-852C-44E8-8BA6-9EB02BDAC194}">
   <ds:schemaRefs>
@@ -3904,6 +3916,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D37419CA-2941-416F-A221-1D9D8E383654}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5764702-8CD2-4BB0-84F5-B3FB4FB98936}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3917,19 +3944,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D37419CA-2941-416F-A221-1D9D8E383654}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>